--- a/data/scenario_data_for_import_into_activity-browser_ecoinvent3.6.xlsx
+++ b/data/scenario_data_for_import_into_activity-browser_ecoinvent3.6.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC2B077-4E37-4BE5-82A0-C93954AD272D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABC2B077-4E37-4BE5-82A0-C93954AD272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E3D488-77BB-41A7-A7E1-51B965E223F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="5033" tabRatio="556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -733,12 +733,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -747,41 +744,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -790,40 +777,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1079,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1121,40 +1087,40 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1172,4300 +1138,4300 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.76171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.52734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.9375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.64453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.8203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.8203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="12.234375" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.64453125" style="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="21">
         <v>0.69538413273718347</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="21">
         <v>0.7003040405624561</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="21">
         <v>0.68448823176810425</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="21">
         <v>0.68021796127044565</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="21">
         <v>0.68021804981560519</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="21">
         <v>0.67805227345980768</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="21">
         <v>0.668899402543227</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="21">
         <v>0.66395555979430265</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="21">
         <v>0.66263184734558389</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="20">
         <v>1.9519396473508757</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="20">
         <v>1.8680732799366735</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="20">
         <v>1.7435336519337179</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="20">
         <v>1.6856425680069158</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="20">
         <v>1.6129832340738839</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="20">
         <v>1.5035608969393397</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="20">
         <v>1.4594198075731148</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="20">
         <v>1.2473153372947339</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="20">
         <v>1.0698134032228857</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="20">
         <v>0.89797055802083514</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="20">
         <v>0.90974783315363428</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="20">
         <v>0.91862490729377277</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="20">
         <v>0.9132964979182</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="20">
         <v>0.9099956209890625</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="20">
         <v>0.90079098058252904</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="20">
         <v>0.74652874187313645</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="20">
         <v>0.7636672417617133</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="20">
         <v>0.75881562559074678</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="21" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="20">
         <v>1.5732217307518079</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="20">
         <v>1.5385207021694614</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="20">
         <v>1.5069807836827904</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="20">
         <v>1.4926698899251984</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="20">
         <v>1.4823893167418081</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="20">
         <v>1.4761761583576509</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="20">
         <v>1.0986422834649467</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="20">
         <v>0.97825673138554914</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="20">
         <v>1.0022698635262837</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="20">
         <v>1.0745781322685171</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="20">
         <v>1.1866653649791656</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="20">
         <v>1.2210330369205236</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="20">
         <v>1.1978610129221412</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="20">
         <v>1.1899476471556765</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="20">
         <v>1.1794642931242107</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="20">
         <v>1.1575432149256248</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="20">
         <v>1.084523106320848</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="20">
         <v>1.0338881376029514</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="21" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="20">
         <v>0.96319838071489128</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="20">
         <v>0.96319838071489128</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="20">
         <v>0.96319838071489128</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="20">
         <v>0.69583564986868818</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="20">
         <v>0.69583564986868818</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="20">
         <v>0.69583564986868818</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="20">
         <v>0.69583564986868818</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="20">
         <v>0.69583564986868818</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="20">
         <v>0.69583564986868818</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="18" t="s">
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="21">
         <v>1.0156733405929756</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="21">
         <v>0.97694231326981518</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="21">
         <v>0.93968822978041899</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="21">
         <v>0.90385476930814812</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="21">
         <v>0.86938775873779628</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="21">
         <v>0.83623509075653757</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="21">
         <v>0.8043466450779615</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="21">
         <v>0.77367421267009806</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="21">
         <v>0.74417142287288263</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="21">
         <v>1.0292538464859913</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="21">
         <v>0.95767081377369367</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="21">
         <v>0.89106627163472207</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="21">
         <v>0.82909397365495308</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="21">
         <v>0.77143175432943223</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="21">
         <v>0.71777985427192725</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="21">
         <v>0.66785936190360007</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="21">
         <v>0.62141076351984825</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="21">
         <v>0.57819259419778646</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="18" t="s">
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="21">
         <v>0.95598149195519122</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="21">
         <v>0.94262715822480614</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="21">
         <v>0.92945937437104864</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="21">
         <v>0.91647553443414764</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="21">
         <v>0.9036730688576069</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="21">
         <v>0.89104944397967745</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="21">
         <v>0.87860216153193715</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="21">
         <v>0.86632875814487098</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="21">
         <v>0.85422680486036229</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="21" t="s">
+      <c r="I11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="20">
         <v>0.94669903429925228</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="20">
         <v>0.93063238944875637</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="20">
         <v>0.91483841528598675</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="20">
         <v>0.89931248425462151</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="20">
         <v>0.88405004733365111</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="20">
         <v>0.86904663270453686</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="20">
         <v>0.85429784444099099</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="20">
         <v>0.83979936122099152</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="20">
         <v>0.82554693506065624</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="18" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="21">
         <v>0.21868717836651089</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="21">
         <v>0.20040929948970909</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="21">
         <v>0.18360213538297321</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="21">
         <v>0.16799595387542052</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="21">
         <v>0.15371629779600979</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="21">
         <v>0.14065041248334897</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="21">
         <v>0.12869512742226433</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="21">
         <v>0.11775604159137187</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="21">
         <v>0.10774677805610527</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="29" t="s">
+      <c r="H13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="20">
         <v>0.3280307675497669</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="20">
         <v>0.30061394923456414</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="20">
         <v>0.27540320307446026</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="20">
         <v>0.25199393081313121</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="20">
         <v>0.23057444669401506</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="20">
         <v>0.21097561872502382</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="20">
         <v>0.19304269113339681</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="20">
         <v>0.17663406238705812</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="20">
         <v>0.16162016708415819</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="21" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="20">
         <v>0.3823747505420011</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="20">
         <v>0.35041586100783412</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="20">
         <v>0.32102851772307683</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="20">
         <v>0.29374109371661533</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="20">
         <v>0.26877310075070304</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="20">
         <v>0.24592738718689333</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="20">
         <v>0.2250235592760074</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="20">
         <v>0.20589655673754684</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="20">
         <v>0.18839534941485536</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="29" t="s">
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="21" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="20">
         <v>1.4074814615125563E-2</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="20">
         <v>1.2898441319396487E-2</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="20">
         <v>1.1816723951349245E-2</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="20">
         <v>1.0812302415484561E-2</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="20">
         <v>9.8932567101683733E-3</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="20">
         <v>9.0523298898040633E-3</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="20">
         <v>8.2828818491707187E-3</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="20">
         <v>7.5788368919912094E-3</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="20">
         <v>6.9346357561719573E-3</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="29" t="s">
+      <c r="H16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="21" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="20">
         <v>0.24041108354965218</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="20">
         <v>0.22031752022973633</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="20">
         <v>0.20184076926299577</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="20">
         <v>0.18468430387564116</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="20">
         <v>0.16898613804621168</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="20">
         <v>0.15462231631228371</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="20">
         <v>0.14147941942573961</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="20">
         <v>0.12945366877455178</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="20">
         <v>0.11845010692871488</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="21" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="20">
         <v>0.43177369289225898</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="20">
         <v>0.39568603873794173</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="20">
         <v>0.36250214854548923</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="20">
         <v>0.33168946591912268</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="20">
         <v>0.30349586131599726</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="20">
         <v>0.27769871310413757</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="20">
         <v>0.25409432249028591</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="20">
         <v>0.23249630507861166</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="20">
         <v>0.21273411914692969</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="21" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="20">
         <v>0.2878491285948393</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="20">
         <v>0.26379069249196119</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="20">
         <v>0.24166809903032616</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="20">
         <v>0.22112631061274848</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="20">
         <v>0.20233057421066486</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="20">
         <v>0.18513247540275837</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="20">
         <v>0.16939621499352392</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="20">
         <v>0.15499753671907443</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="20">
         <v>0.14182274609795312</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="29" t="s">
+      <c r="H19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="21" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="20">
         <v>0.35075151335407934</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="20">
         <v>0.32143569463609201</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="20">
         <v>0.29447874960775589</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="20">
         <v>0.26944805589109666</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="20">
         <v>0.24654497114035345</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="20">
         <v>0.22558864859342348</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="20">
         <v>0.20641361346298248</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="20">
         <v>0.188868456318629</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="20">
         <v>0.17281463753154558</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="29" t="s">
+      <c r="H20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="21" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="20">
         <v>0.23430769110697619</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="20">
         <v>0.21472424945325994</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="20">
         <v>0.19671657362461434</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="20">
         <v>0.17999566486652216</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="20">
         <v>0.16469603335286778</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="20">
         <v>0.15069687051787406</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="20">
         <v>0.13788763652385477</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="20">
         <v>0.12616718741932714</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="20">
         <v>0.11544297648868435</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="29" t="s">
+      <c r="H21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="21" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="20">
         <v>0.25625593155394233</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="20">
         <v>0.23483805551113615</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="20">
         <v>0.21514355157577816</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="20">
         <v>0.19685634969183705</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="20">
         <v>0.18012355996803092</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="20">
         <v>0.16481305737074833</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="20">
         <v>0.15080394749423473</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="20">
         <v>0.13798561195722481</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="20">
         <v>0.12625683494086071</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="29" t="s">
+      <c r="H22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="21" t="s">
+      <c r="J22" s="19"/>
+      <c r="K22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="20">
         <v>0.38379883812645244</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="20">
         <v>0.3517209233226149</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="20">
         <v>0.32222413204043487</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="20">
         <v>0.294835080816998</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="20">
         <v>0.26977409894755316</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="20">
         <v>0.2468433005370112</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="20">
         <v>0.22586161999136525</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="20">
         <v>0.20666338229209927</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="20">
         <v>0.18909699479727085</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="29" t="s">
+      <c r="H23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="21" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="20">
         <v>0.35399833482681409</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="20">
         <v>0.3244111467031921</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="20">
         <v>0.29720466778939847</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="20">
         <v>0.27194227102729968</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="20">
         <v>0.24882717798997919</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="20">
         <v>0.22767686786083102</v>
       </c>
-      <c r="S23" s="33">
+      <c r="S23" s="20">
         <v>0.20832433409266038</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="20">
         <v>0.19061676569478431</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="20">
         <v>0.17441434061072766</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="29" t="s">
+      <c r="H24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="21" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="20">
         <v>0.23599888988454312</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="20">
         <v>0.21627409780212842</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="20">
         <v>0.19813644519293266</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="20">
         <v>0.18129484735153339</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="20">
         <v>0.16588478532665307</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="20">
         <v>0.15178457857388761</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="20">
         <v>0.13888288939510715</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="20">
         <v>0.12707784379652309</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="20">
         <v>0.11627622707381863</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="29" t="s">
+      <c r="H25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" s="21" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="20">
         <v>2.9144740764774091</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="20">
         <v>2.7047776507916206</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="20">
         <v>2.5096006264895632</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="20">
         <v>2.3263997807558261</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="20">
         <v>2.1565725967606513</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="20">
         <v>1.9991427971971243</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="20">
         <v>1.8532053730017346</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="20">
         <v>1.7179213807726086</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="20">
         <v>1.5925131199762084</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="29" t="s">
+      <c r="H26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="21" t="s">
+      <c r="J26" s="19"/>
+      <c r="K26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="20">
         <v>5.5469614644781702</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="20">
         <v>5.1478575568792522</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="20">
         <v>4.7763876435617982</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="20">
         <v>4.4277113455817885</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="20">
         <v>4.104488417354319</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="20">
         <v>3.8048607628874551</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="20">
         <v>3.5271059271966716</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="20">
         <v>3.2696271945113158</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="20">
         <v>3.0309444093119899</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="21" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="21" t="s">
+      <c r="J27" s="16"/>
+      <c r="K27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="20">
         <v>4.1075885499935421</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="20">
         <v>3.8120475314360576</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="20">
         <v>3.5369698024161011</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="20">
         <v>3.2787710068397264</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="20">
         <v>3.0394207233404273</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="20">
         <v>2.8175430105365771</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="20">
         <v>2.6118623707674078</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="20">
         <v>2.4211964177013878</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="20">
         <v>2.2444490792091867</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="29" t="s">
+      <c r="H28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="21" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="20">
         <v>13.583295469555365</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="20">
         <v>12.605977286494898</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="20">
         <v>11.696328711693456</v>
       </c>
-      <c r="P28" s="33">
+      <c r="P28" s="20">
         <v>10.842496715739836</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="20">
         <v>10.05099445549083</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="20">
         <v>9.3172718602400035</v>
       </c>
-      <c r="S28" s="33">
+      <c r="S28" s="20">
         <v>8.6371110144424854</v>
       </c>
-      <c r="T28" s="33">
+      <c r="T28" s="20">
         <v>8.006601910388186</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="20">
         <v>7.4221199709298498</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="29" t="s">
+      <c r="H29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="21" t="s">
+      <c r="J29" s="19"/>
+      <c r="K29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="20">
         <v>4.0641220044909652</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="20">
         <v>3.7717084041192739</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="20">
         <v>3.499541550538682</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="20">
         <v>3.2440750173493589</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="20">
         <v>3.0072575410828564</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="20">
         <v>2.7877277405838092</v>
       </c>
-      <c r="S29" s="33">
+      <c r="S29" s="20">
         <v>2.5842236155211915</v>
       </c>
-      <c r="T29" s="33">
+      <c r="T29" s="20">
         <v>2.3955752915881452</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="20">
         <v>2.2206982953022107</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" s="21" t="s">
+      <c r="J30" s="19"/>
+      <c r="K30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="20">
         <v>3.2755946545020076</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="20">
         <v>3.0399156012593216</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="20">
         <v>2.82055498911823</v>
       </c>
-      <c r="P30" s="33">
+      <c r="P30" s="20">
         <v>2.6146544749126002</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="20">
         <v>2.4237846982439808</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="20">
         <v>2.2468484152721713</v>
       </c>
-      <c r="S30" s="33">
+      <c r="S30" s="20">
         <v>2.082828480957303</v>
       </c>
-      <c r="T30" s="33">
+      <c r="T30" s="20">
         <v>1.9307820018474207</v>
       </c>
-      <c r="U30" s="33">
+      <c r="U30" s="20">
         <v>1.789834915712559</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" s="18" t="s">
+      <c r="I31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="21">
         <v>0.44430509051456274</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="21">
         <v>0.44007791163015991</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="21">
         <v>0.43541076457219835</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="21">
         <v>0.4302578570997917</v>
       </c>
-      <c r="Q31" s="32">
+      <c r="Q31" s="21">
         <v>0.4248638888978849</v>
       </c>
-      <c r="R31" s="32">
+      <c r="R31" s="21">
         <v>0.41893764799121636</v>
       </c>
-      <c r="S31" s="32">
+      <c r="S31" s="21">
         <v>0.41242661011163539</v>
       </c>
-      <c r="T31" s="32">
+      <c r="T31" s="21">
         <v>0.40527306793591394</v>
       </c>
-      <c r="U31" s="32">
+      <c r="U31" s="21">
         <v>0.39741361962578997</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" s="30" t="s">
+      <c r="I32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="20">
         <v>0.18840785483845421</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="20">
         <v>0.18661531695709352</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="20">
         <v>0.18463621029327437</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="20">
         <v>0.18245111661826649</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="20">
         <v>0.18016380098834398</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="20">
         <v>0.17765077478108579</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="20">
         <v>0.17488976504733944</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T32" s="20">
         <v>0.17185630096016641</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U32" s="20">
         <v>0.16852349692992397</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="30" t="s">
+      <c r="I33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="20">
         <v>3.0118240620340134E-2</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="20">
         <v>2.9831691594673523E-2</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="20">
         <v>2.9515318316259347E-2</v>
       </c>
-      <c r="P33" s="31">
+      <c r="P33" s="20">
         <v>2.916601665291681E-2</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="20">
         <v>2.8800374134584767E-2</v>
       </c>
-      <c r="R33" s="31">
+      <c r="R33" s="20">
         <v>2.8398650288939797E-2</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S33" s="20">
         <v>2.795728463787724E-2</v>
       </c>
-      <c r="T33" s="31">
+      <c r="T33" s="20">
         <v>2.7472365358004465E-2</v>
       </c>
-      <c r="U33" s="31">
+      <c r="U33" s="20">
         <v>2.6939594610153491E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="C34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="30" t="s">
+      <c r="I34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="20">
         <v>1.935791161628379E-2</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="20">
         <v>1.9173737819995023E-2</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O34" s="20">
         <v>1.8970395067060129E-2</v>
       </c>
-      <c r="P34" s="31">
+      <c r="P34" s="20">
         <v>1.8745888237074872E-2</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="20">
         <v>1.8510878641320231E-2</v>
       </c>
-      <c r="R34" s="31">
+      <c r="R34" s="20">
         <v>1.8252678476304712E-2</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="20">
         <v>1.7968999314183855E-2</v>
       </c>
-      <c r="T34" s="31">
+      <c r="T34" s="20">
         <v>1.7657326906783344E-2</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="20">
         <v>1.7314898901819618E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L35" s="30" t="s">
+      <c r="I35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="20">
         <v>0.31302831116049451</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="20">
         <v>0.31942107908451473</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="20">
         <v>0.3264792114287382</v>
       </c>
-      <c r="P35" s="31">
+      <c r="P35" s="20">
         <v>0.3342719598564402</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="20">
         <v>0.34242926472744201</v>
       </c>
-      <c r="R35" s="31">
+      <c r="R35" s="20">
         <v>0.35139152627685327</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="20">
         <v>0.36123817702121758</v>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="20">
         <v>0.37205648781776629</v>
       </c>
-      <c r="U35" s="31">
+      <c r="U35" s="20">
         <v>0.38394234134595284</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" s="30" t="s">
+      <c r="I36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="20">
         <v>4.782591249864636E-3</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="20">
         <v>4.8802629135633185E-3</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="20">
         <v>4.9881003224696418E-3</v>
       </c>
-      <c r="P36" s="31">
+      <c r="P36" s="20">
         <v>5.1071615355099383E-3</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="20">
         <v>5.2317926104242093E-3</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="20">
         <v>5.3687221856000347E-3</v>
       </c>
-      <c r="S36" s="31">
+      <c r="S36" s="20">
         <v>5.5191638677465566E-3</v>
       </c>
-      <c r="T36" s="31">
+      <c r="T36" s="20">
         <v>5.6844510213655873E-3</v>
       </c>
-      <c r="U36" s="31">
+      <c r="U36" s="20">
         <v>5.8660485863600582E-3</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="18" t="s">
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" s="18" t="s">
+      <c r="I37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="21">
         <v>0.40807838112482253</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="21">
         <v>0.36802875261471707</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="21">
         <v>0.33522112732265108</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="21">
         <v>0.29899885803910226</v>
       </c>
-      <c r="Q37" s="32">
+      <c r="Q37" s="21">
         <v>0.26108205674534379</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="21">
         <v>0.21942365416194395</v>
       </c>
-      <c r="S37" s="32">
+      <c r="S37" s="21">
         <v>0.20314766797301692</v>
       </c>
-      <c r="T37" s="32">
+      <c r="T37" s="21">
         <v>0.20314766797301695</v>
       </c>
-      <c r="U37" s="32">
+      <c r="U37" s="21">
         <v>0.20314766797301698</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L38" s="30" t="s">
+      <c r="I38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="20">
         <v>5.1703547988512927E-2</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="20">
         <v>4.6629258378054574E-2</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="20">
         <v>4.2472530878788613E-2</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="20">
         <v>3.7883167842715532E-2</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="20">
         <v>3.3079107529941705E-2</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="20">
         <v>2.7800986176983351E-2</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="20">
         <v>2.5738818044822098E-2</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="20">
         <v>2.5738818044822101E-2</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="20">
         <v>2.5738818044822104E-2</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L39" s="30" t="s">
+      <c r="I39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="20">
         <v>2.2368013757384196E-3</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="20">
         <v>2.0172772149576138E-3</v>
       </c>
-      <c r="O39" s="31">
+      <c r="O39" s="20">
         <v>1.837448670289973E-3</v>
       </c>
-      <c r="P39" s="31">
+      <c r="P39" s="20">
         <v>1.6389034262550371E-3</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="20">
         <v>1.4310699383263124E-3</v>
       </c>
-      <c r="R39" s="31">
+      <c r="R39" s="20">
         <v>1.2027275989140429E-3</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="20">
         <v>1.1135139821609524E-3</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="20">
         <v>1.1135139821609526E-3</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="20">
         <v>1.1135139821609526E-3</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" s="30" t="s">
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="20">
         <v>0.36000755671327372</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="20">
         <v>0.3903505868405423</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="20">
         <v>0.41520681646549656</v>
       </c>
-      <c r="P40" s="31">
+      <c r="P40" s="20">
         <v>0.44265010243433967</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="20">
         <v>0.47137722642491225</v>
       </c>
-      <c r="R40" s="31">
+      <c r="R40" s="20">
         <v>0.50293912129549856</v>
       </c>
-      <c r="S40" s="31">
+      <c r="S40" s="20">
         <v>0.51527039021493448</v>
       </c>
-      <c r="T40" s="31">
+      <c r="T40" s="20">
         <v>0.51527039021493448</v>
       </c>
-      <c r="U40" s="31">
+      <c r="U40" s="20">
         <v>0.51527039021493448</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="30" t="s">
+      <c r="I41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M41" s="20">
         <v>0.17779262766552345</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="20">
         <v>0.19277777716325425</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="20">
         <v>0.20505322609889409</v>
       </c>
-      <c r="P41" s="31">
+      <c r="P41" s="20">
         <v>0.21860631361939586</v>
       </c>
-      <c r="Q41" s="31">
+      <c r="Q41" s="20">
         <v>0.23279343487370061</v>
       </c>
-      <c r="R41" s="31">
+      <c r="R41" s="20">
         <v>0.248380530529067</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="20">
         <v>0.25447042687361193</v>
       </c>
-      <c r="T41" s="31">
+      <c r="T41" s="20">
         <v>0.25447042687361188</v>
       </c>
-      <c r="U41" s="31">
+      <c r="U41" s="20">
         <v>0.25447042687361193</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="30" t="s">
+      <c r="I42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="20">
         <v>1.7836006460658884E-4</v>
       </c>
-      <c r="N42" s="31">
+      <c r="N42" s="20">
         <v>1.9339304020095848E-4</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="20">
         <v>2.0570766704451106E-4</v>
       </c>
-      <c r="P42" s="31">
+      <c r="P42" s="20">
         <v>2.1930401014104883E-4</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="20">
         <v>2.3353641053202399E-4</v>
       </c>
-      <c r="R42" s="31">
+      <c r="R42" s="20">
         <v>2.4917325343504015E-4</v>
       </c>
-      <c r="S42" s="31">
+      <c r="S42" s="20">
         <v>2.5528258608691979E-4</v>
       </c>
-      <c r="T42" s="31">
+      <c r="T42" s="20">
         <v>2.5528258608691979E-4</v>
       </c>
-      <c r="U42" s="31">
+      <c r="U42" s="20">
         <v>2.5528258608691979E-4</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" s="30" t="s">
+      <c r="I43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M43" s="20">
         <v>2.7250675223283533E-6</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="20">
         <v>2.9547482731541078E-6</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="20">
         <v>3.1428968350812288E-6</v>
       </c>
-      <c r="P43" s="31">
+      <c r="P43" s="20">
         <v>3.3506280504546484E-6</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q43" s="20">
         <v>3.5680772432196699E-6</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R43" s="20">
         <v>3.8069841579527886E-6</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S43" s="20">
         <v>3.9003253665325174E-6</v>
       </c>
-      <c r="T43" s="31">
+      <c r="T43" s="20">
         <v>3.9003253665325165E-6</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U43" s="20">
         <v>3.9003253665325174E-6</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="24" t="s">
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="18" t="s">
+      <c r="H44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="21">
         <v>0.15955242843849449</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="21">
         <v>0.14474510901872242</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="21">
         <v>0.13729378972368625</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="21">
         <v>0.13193889424276176</v>
       </c>
-      <c r="Q44" s="32">
+      <c r="Q44" s="21">
         <v>0.12442709035582583</v>
       </c>
-      <c r="R44" s="32">
+      <c r="R44" s="21">
         <v>0.12100163022637091</v>
       </c>
-      <c r="S44" s="32">
+      <c r="S44" s="21">
         <v>0.11877211313784176</v>
       </c>
-      <c r="T44" s="32">
+      <c r="T44" s="21">
         <v>0.11715359474169541</v>
       </c>
-      <c r="U44" s="32">
+      <c r="U44" s="21">
         <v>0.11132049025674164</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="30" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L45" s="30" t="s">
+      <c r="H45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19"/>
+      <c r="K45" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M45" s="31">
+      <c r="M45" s="20">
         <v>1.5726596370269331E-2</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="20">
         <v>1.5669392506601681E-2</v>
       </c>
-      <c r="O45" s="31">
+      <c r="O45" s="20">
         <v>1.3042609951983683E-2</v>
       </c>
-      <c r="P45" s="31">
+      <c r="P45" s="20">
         <v>1.6427201184151634E-2</v>
       </c>
-      <c r="Q45" s="31">
+      <c r="Q45" s="20">
         <v>1.8722756105788631E-2</v>
       </c>
-      <c r="R45" s="31">
+      <c r="R45" s="20">
         <v>1.9419197974213667E-2</v>
       </c>
-      <c r="S45" s="31">
+      <c r="S45" s="20">
         <v>2.3910345929017546E-2</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T45" s="20">
         <v>2.4813990413443739E-2</v>
       </c>
-      <c r="U45" s="31">
+      <c r="U45" s="20">
         <v>1.9440267147984337E-2</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="30" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" s="30" t="s">
+      <c r="H46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19"/>
+      <c r="K46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M46" s="31">
+      <c r="M46" s="20">
         <v>0.31184667880586414</v>
       </c>
-      <c r="N46" s="31">
+      <c r="N46" s="20">
         <v>0.31233359367590963</v>
       </c>
-      <c r="O46" s="31">
+      <c r="O46" s="20">
         <v>0.31207096183067462</v>
       </c>
-      <c r="P46" s="31">
+      <c r="P46" s="20">
         <v>0.30331622015161769</v>
       </c>
-      <c r="Q46" s="31">
+      <c r="Q46" s="20">
         <v>0.30232772654438883</v>
       </c>
-      <c r="R46" s="31">
+      <c r="R46" s="20">
         <v>0.31184492583823592</v>
       </c>
-      <c r="S46" s="31">
+      <c r="S46" s="20">
         <v>0.3213485629043763</v>
       </c>
-      <c r="T46" s="31">
+      <c r="T46" s="20">
         <v>0.3148666110994891</v>
       </c>
-      <c r="U46" s="31">
+      <c r="U46" s="20">
         <v>0.30083894101776126</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="30" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" s="30" t="s">
+      <c r="H47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M47" s="31">
+      <c r="M47" s="20">
         <v>6.473846694941908E-2</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="20">
         <v>5.5420867787221294E-2</v>
       </c>
-      <c r="O47" s="31">
+      <c r="O47" s="20">
         <v>5.0835950698780913E-2</v>
       </c>
-      <c r="P47" s="31">
+      <c r="P47" s="20">
         <v>4.934651756074019E-2</v>
       </c>
-      <c r="Q47" s="31">
+      <c r="Q47" s="20">
         <v>4.3988044370638357E-2</v>
       </c>
-      <c r="R47" s="31">
+      <c r="R47" s="20">
         <v>4.0269159171746026E-2</v>
       </c>
-      <c r="S47" s="31">
+      <c r="S47" s="20">
         <v>3.9598361932647631E-2</v>
       </c>
-      <c r="T47" s="31">
+      <c r="T47" s="20">
         <v>4.1438281719840694E-2</v>
       </c>
-      <c r="U47" s="31">
+      <c r="U47" s="20">
         <v>4.621073802400627E-2</v>
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="30" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" s="30" t="s">
+      <c r="H48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M48" s="31">
+      <c r="M48" s="20">
         <v>3.3771572745206056E-2</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="20">
         <v>3.1558469958463335E-2</v>
       </c>
-      <c r="O48" s="31">
+      <c r="O48" s="20">
         <v>3.5212681868519398E-2</v>
       </c>
-      <c r="P48" s="31">
+      <c r="P48" s="20">
         <v>3.7321472343946401E-2</v>
       </c>
-      <c r="Q48" s="31">
+      <c r="Q48" s="20">
         <v>3.9616472198302416E-2</v>
       </c>
-      <c r="R48" s="31">
+      <c r="R48" s="20">
         <v>4.1984853562609573E-2</v>
       </c>
-      <c r="S48" s="31">
+      <c r="S48" s="20">
         <v>4.3591161036793342E-2</v>
       </c>
-      <c r="T48" s="31">
+      <c r="T48" s="20">
         <v>4.2003745243577646E-2</v>
       </c>
-      <c r="U48" s="31">
+      <c r="U48" s="20">
         <v>4.4115834998895528E-2</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="30" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L49" s="30" t="s">
+      <c r="H49" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M49" s="20">
         <v>5.0919890052529788E-2</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="20">
         <v>7.2413895014452057E-2</v>
       </c>
-      <c r="O49" s="31">
+      <c r="O49" s="20">
         <v>8.6557239968722693E-2</v>
       </c>
-      <c r="P49" s="31">
+      <c r="P49" s="20">
         <v>9.3884954206981008E-2</v>
       </c>
-      <c r="Q49" s="31">
+      <c r="Q49" s="20">
         <v>9.6129423311354059E-2</v>
       </c>
-      <c r="R49" s="31">
+      <c r="R49" s="20">
         <v>7.8632276698518716E-2</v>
       </c>
-      <c r="S49" s="31">
+      <c r="S49" s="20">
         <v>4.8919100849826577E-2</v>
       </c>
-      <c r="T49" s="31">
+      <c r="T49" s="20">
         <v>3.3913566070526556E-2</v>
       </c>
-      <c r="U49" s="31">
+      <c r="U49" s="20">
         <v>2.5327457055921071E-2</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="30" t="s">
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L50" s="30" t="s">
+      <c r="H50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="31">
+      <c r="M50" s="20">
         <v>0.17038781512821652</v>
       </c>
-      <c r="N50" s="31">
+      <c r="N50" s="20">
         <v>0.16300019112707922</v>
       </c>
-      <c r="O50" s="31">
+      <c r="O50" s="20">
         <v>0.13808662156255147</v>
       </c>
-      <c r="P50" s="31">
+      <c r="P50" s="20">
         <v>0.11652881839195947</v>
       </c>
-      <c r="Q50" s="31">
+      <c r="Q50" s="20">
         <v>9.8078323550853122E-2</v>
       </c>
-      <c r="R50" s="31">
+      <c r="R50" s="20">
         <v>8.2149772411380745E-2</v>
       </c>
-      <c r="S50" s="31">
+      <c r="S50" s="20">
         <v>6.8412312826894806E-2</v>
       </c>
-      <c r="T50" s="31">
+      <c r="T50" s="20">
         <v>5.6577939392568319E-2</v>
       </c>
-      <c r="U50" s="31">
+      <c r="U50" s="20">
         <v>4.6395967971602746E-2</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="30" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="30" t="s">
+      <c r="H51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19"/>
+      <c r="K51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="20">
         <v>1.6837761541726146E-2</v>
       </c>
-      <c r="N51" s="31">
+      <c r="N51" s="20">
         <v>1.659150131944238E-2</v>
       </c>
-      <c r="O51" s="31">
+      <c r="O51" s="20">
         <v>1.6131577796408458E-2</v>
       </c>
-      <c r="P51" s="31">
+      <c r="P51" s="20">
         <v>1.5623785063686585E-2</v>
       </c>
-      <c r="Q51" s="31">
+      <c r="Q51" s="20">
         <v>1.5092237026364303E-2</v>
       </c>
-      <c r="R51" s="31">
+      <c r="R51" s="20">
         <v>1.4508236230526262E-2</v>
       </c>
-      <c r="S51" s="31">
+      <c r="S51" s="20">
         <v>1.3866606677612163E-2</v>
       </c>
-      <c r="T51" s="31">
+      <c r="T51" s="20">
         <v>1.3161661605436407E-2</v>
       </c>
-      <c r="U51" s="31">
+      <c r="U51" s="20">
         <v>1.2387153086419652E-2</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="30" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" s="30" t="s">
+      <c r="H52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="20">
         <v>7.30301618593188E-3</v>
       </c>
-      <c r="N52" s="31">
+      <c r="N52" s="20">
         <v>7.1962061218486728E-3</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="20">
         <v>6.9967242058776016E-3</v>
       </c>
-      <c r="P52" s="31">
+      <c r="P52" s="20">
         <v>6.7764800518683842E-3</v>
       </c>
-      <c r="Q52" s="31">
+      <c r="Q52" s="20">
         <v>6.5459325464565102E-3</v>
       </c>
-      <c r="R52" s="31">
+      <c r="R52" s="20">
         <v>6.2926347874858075E-3</v>
       </c>
-      <c r="S52" s="31">
+      <c r="S52" s="20">
         <v>6.0143417971324402E-3</v>
       </c>
-      <c r="T52" s="31">
+      <c r="T52" s="20">
         <v>5.7085870648579335E-3</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="20">
         <v>5.3726606867283604E-3</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="30" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" s="30" t="s">
+      <c r="H53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M53" s="31">
+      <c r="M53" s="20">
         <v>1.2648754269817312E-3</v>
       </c>
-      <c r="N53" s="31">
+      <c r="N53" s="20">
         <v>1.2463760259159846E-3</v>
       </c>
-      <c r="O53" s="31">
+      <c r="O53" s="20">
         <v>1.2118259486307804E-3</v>
       </c>
-      <c r="P53" s="31">
+      <c r="P53" s="20">
         <v>1.1736798715511099E-3</v>
       </c>
-      <c r="Q53" s="31">
+      <c r="Q53" s="20">
         <v>1.1337492638510797E-3</v>
       </c>
-      <c r="R53" s="31">
+      <c r="R53" s="20">
         <v>1.0898783339675113E-3</v>
       </c>
-      <c r="S53" s="31">
+      <c r="S53" s="20">
         <v>1.0416782538858974E-3</v>
       </c>
-      <c r="T53" s="31">
+      <c r="T53" s="20">
         <v>9.8872182633718154E-4</v>
       </c>
-      <c r="U53" s="31">
+      <c r="U53" s="20">
         <v>9.3053969854872286E-4</v>
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="30" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="29"/>
-      <c r="K54" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L54" s="30" t="s">
+      <c r="H54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19"/>
+      <c r="K54" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M54" s="31">
+      <c r="M54" s="20">
         <v>2.9466928840860088E-4</v>
       </c>
-      <c r="N54" s="31">
+      <c r="N54" s="20">
         <v>2.9035961076624478E-4</v>
       </c>
-      <c r="O54" s="31">
+      <c r="O54" s="20">
         <v>2.8231071798920111E-4</v>
       </c>
-      <c r="P54" s="31">
+      <c r="P54" s="20">
         <v>2.7342408998705202E-4</v>
       </c>
-      <c r="Q54" s="31">
+      <c r="Q54" s="20">
         <v>2.6412173221671573E-4</v>
       </c>
-      <c r="R54" s="31">
+      <c r="R54" s="20">
         <v>2.539014248134307E-4</v>
       </c>
-      <c r="S54" s="31">
+      <c r="S54" s="20">
         <v>2.4267258520131301E-4</v>
       </c>
-      <c r="T54" s="31">
+      <c r="T54" s="20">
         <v>2.3033569218436367E-4</v>
       </c>
-      <c r="U54" s="31">
+      <c r="U54" s="20">
         <v>2.1678140389019235E-4</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="30" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L55" s="30" t="s">
+      <c r="H55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M55" s="20">
         <v>1.5498394146361587E-9</v>
       </c>
-      <c r="N55" s="31">
+      <c r="N55" s="20">
         <v>1.5271722805395846E-9</v>
       </c>
-      <c r="O55" s="31">
+      <c r="O55" s="20">
         <v>1.4848384108057804E-9</v>
       </c>
-      <c r="P55" s="31">
+      <c r="P55" s="20">
         <v>1.4380983979075171E-9</v>
       </c>
-      <c r="Q55" s="31">
+      <c r="Q55" s="20">
         <v>1.3891718171994433E-9</v>
       </c>
-      <c r="R55" s="31">
+      <c r="R55" s="20">
         <v>1.3354171984916236E-9</v>
       </c>
-      <c r="S55" s="31">
+      <c r="S55" s="20">
         <v>1.2763581146438484E-9</v>
       </c>
-      <c r="T55" s="31">
+      <c r="T55" s="20">
         <v>1.2114711250458528E-9</v>
       </c>
-      <c r="U55" s="31">
+      <c r="U55" s="20">
         <v>1.1401811363636286E-9</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="30" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="29"/>
-      <c r="K56" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L56" s="30" t="s">
+      <c r="H56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M56" s="31">
+      <c r="M56" s="20">
         <v>3.9785149728236323E-10</v>
       </c>
-      <c r="N56" s="31">
+      <c r="N56" s="20">
         <v>3.9203273105777401E-10</v>
       </c>
-      <c r="O56" s="31">
+      <c r="O56" s="20">
         <v>3.8116541583769711E-10</v>
       </c>
-      <c r="P56" s="31">
+      <c r="P56" s="20">
         <v>3.691670217208869E-10</v>
       </c>
-      <c r="Q56" s="31">
+      <c r="Q56" s="20">
         <v>3.5660732475629315E-10</v>
       </c>
-      <c r="R56" s="31">
+      <c r="R56" s="20">
         <v>3.428082463893455E-10</v>
       </c>
-      <c r="S56" s="31">
+      <c r="S56" s="20">
         <v>3.2764748540013163E-10</v>
       </c>
-      <c r="T56" s="31">
+      <c r="T56" s="20">
         <v>3.1099067197680793E-10</v>
       </c>
-      <c r="U56" s="31">
+      <c r="U56" s="20">
         <v>2.9269017679607071E-10</v>
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" s="30" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L57" s="30" t="s">
+      <c r="H57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19"/>
+      <c r="K57" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="20">
         <v>1.9595670759767564E-10</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="20">
         <v>1.9309074811420078E-10</v>
       </c>
-      <c r="O57" s="31">
+      <c r="O57" s="20">
         <v>1.8773818987199563E-10</v>
       </c>
-      <c r="P57" s="31">
+      <c r="P57" s="20">
         <v>1.8182853306876692E-10</v>
       </c>
-      <c r="Q57" s="31">
+      <c r="Q57" s="20">
         <v>1.7564241366889551E-10</v>
       </c>
-      <c r="R57" s="31">
+      <c r="R57" s="20">
         <v>1.6884585268284931E-10</v>
       </c>
-      <c r="S57" s="31">
+      <c r="S57" s="20">
         <v>1.6137861219634899E-10</v>
       </c>
-      <c r="T57" s="31">
+      <c r="T57" s="20">
         <v>1.5317451006326906E-10</v>
       </c>
-      <c r="U57" s="31">
+      <c r="U57" s="20">
         <v>1.4416083333333267E-10</v>
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="30" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="29"/>
-      <c r="K58" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L58" s="30" t="s">
+      <c r="H58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="20">
         <v>1.9595670759767564E-10</v>
       </c>
-      <c r="N58" s="31">
+      <c r="N58" s="20">
         <v>1.9309074811420078E-10</v>
       </c>
-      <c r="O58" s="31">
+      <c r="O58" s="20">
         <v>1.8773818987199563E-10</v>
       </c>
-      <c r="P58" s="31">
+      <c r="P58" s="20">
         <v>1.8182853306876692E-10</v>
       </c>
-      <c r="Q58" s="31">
+      <c r="Q58" s="20">
         <v>1.7564241366889551E-10</v>
       </c>
-      <c r="R58" s="31">
+      <c r="R58" s="20">
         <v>1.6884585268284931E-10</v>
       </c>
-      <c r="S58" s="31">
+      <c r="S58" s="20">
         <v>1.6137861219634899E-10</v>
       </c>
-      <c r="T58" s="31">
+      <c r="T58" s="20">
         <v>1.5317451006326906E-10</v>
       </c>
-      <c r="U58" s="31">
+      <c r="U58" s="20">
         <v>1.4416083333333267E-10</v>
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="30" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L59" s="30" t="s">
+      <c r="H59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="19"/>
+      <c r="K59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M59" s="31">
+      <c r="M59" s="20">
         <v>0.12608291405562186</v>
       </c>
-      <c r="N59" s="31">
+      <c r="N59" s="20">
         <v>0.13525743746862789</v>
       </c>
-      <c r="O59" s="31">
+      <c r="O59" s="20">
         <v>0.1523920729007551</v>
       </c>
-      <c r="P59" s="31">
+      <c r="P59" s="20">
         <v>0.17131009495119734</v>
       </c>
-      <c r="Q59" s="31">
+      <c r="Q59" s="20">
         <v>0.19111313040826466</v>
       </c>
-      <c r="R59" s="31">
+      <c r="R59" s="20">
         <v>0.21287031443474663</v>
       </c>
-      <c r="S59" s="31">
+      <c r="S59" s="20">
         <v>0.23677448093429518</v>
       </c>
-      <c r="T59" s="31">
+      <c r="T59" s="20">
         <v>0.26303749251440794</v>
       </c>
-      <c r="U59" s="31">
+      <c r="U59" s="20">
         <v>0.2918921182245392</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="30" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="29"/>
-      <c r="K60" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L60" s="30" t="s">
+      <c r="H60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="19"/>
+      <c r="K60" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L60" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M60" s="31">
+      <c r="M60" s="20">
         <v>2.8557644301522019E-2</v>
       </c>
-      <c r="N60" s="31">
+      <c r="N60" s="20">
         <v>3.0635663977915513E-2</v>
       </c>
-      <c r="O60" s="31">
+      <c r="O60" s="20">
         <v>3.4516640457338231E-2</v>
       </c>
-      <c r="P60" s="31">
+      <c r="P60" s="20">
         <v>3.8801552085939592E-2</v>
       </c>
-      <c r="Q60" s="31">
+      <c r="Q60" s="20">
         <v>4.3286918298397793E-2</v>
       </c>
-      <c r="R60" s="31">
+      <c r="R60" s="20">
         <v>4.821489705812828E-2</v>
       </c>
-      <c r="S60" s="31">
+      <c r="S60" s="20">
         <v>5.3629165036716671E-2</v>
       </c>
-      <c r="T60" s="31">
+      <c r="T60" s="20">
         <v>5.957770888668467E-2</v>
       </c>
-      <c r="U60" s="31">
+      <c r="U60" s="20">
         <v>6.6113250547150754E-2</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="30" t="s">
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L61" s="30" t="s">
+      <c r="H61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M61" s="31">
+      <c r="M61" s="20">
         <v>1.0001221139616892E-2</v>
       </c>
-      <c r="N61" s="31">
+      <c r="N61" s="20">
         <v>1.0728967941721953E-2</v>
       </c>
-      <c r="O61" s="31">
+      <c r="O61" s="20">
         <v>1.2088131309629361E-2</v>
       </c>
-      <c r="P61" s="31">
+      <c r="P61" s="20">
         <v>1.3588757492548594E-2</v>
       </c>
-      <c r="Q61" s="31">
+      <c r="Q61" s="20">
         <v>1.515958521591825E-2</v>
       </c>
-      <c r="R61" s="31">
+      <c r="R61" s="20">
         <v>1.6885421031611662E-2</v>
       </c>
-      <c r="S61" s="31">
+      <c r="S61" s="20">
         <v>1.8781561021005783E-2</v>
       </c>
-      <c r="T61" s="31">
+      <c r="T61" s="20">
         <v>2.086481067122526E-2</v>
       </c>
-      <c r="U61" s="31">
+      <c r="U61" s="20">
         <v>2.3153633822160603E-2</v>
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="30" t="s">
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="29"/>
-      <c r="K62" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L62" s="30" t="s">
+      <c r="H62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L62" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M62" s="31">
+      <c r="M62" s="20">
         <v>1.8456027029475782E-3</v>
       </c>
-      <c r="N62" s="31">
+      <c r="N62" s="20">
         <v>1.9798994499424165E-3</v>
       </c>
-      <c r="O62" s="31">
+      <c r="O62" s="20">
         <v>2.2307163802491223E-3</v>
       </c>
-      <c r="P62" s="31">
+      <c r="P62" s="20">
         <v>2.5076385381183099E-3</v>
       </c>
-      <c r="Q62" s="31">
+      <c r="Q62" s="20">
         <v>2.7975155293021164E-3</v>
       </c>
-      <c r="R62" s="31">
+      <c r="R62" s="20">
         <v>3.1159973628524457E-3</v>
       </c>
-      <c r="S62" s="31">
+      <c r="S62" s="20">
         <v>3.4659067429910831E-3</v>
       </c>
-      <c r="T62" s="31">
+      <c r="T62" s="20">
         <v>3.8503449162586873E-3</v>
       </c>
-      <c r="U62" s="31">
+      <c r="U62" s="20">
         <v>4.2727191578602556E-3</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="30" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L63" s="30" t="s">
+      <c r="H63" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M63" s="31">
+      <c r="M63" s="20">
         <v>8.5323762457714051E-4</v>
       </c>
-      <c r="N63" s="31">
+      <c r="N63" s="20">
         <v>9.1532413821916552E-4</v>
       </c>
-      <c r="O63" s="31">
+      <c r="O63" s="20">
         <v>1.0312789108670589E-3</v>
       </c>
-      <c r="P63" s="31">
+      <c r="P63" s="20">
         <v>1.159302349387019E-3</v>
       </c>
-      <c r="Q63" s="31">
+      <c r="Q63" s="20">
         <v>1.2933149161123644E-3</v>
       </c>
-      <c r="R63" s="31">
+      <c r="R63" s="20">
         <v>1.4405517416195349E-3</v>
       </c>
-      <c r="S63" s="31">
+      <c r="S63" s="20">
         <v>1.6023177857686535E-3</v>
       </c>
-      <c r="T63" s="31">
+      <c r="T63" s="20">
         <v>1.7800467808723971E-3</v>
       </c>
-      <c r="U63" s="31">
+      <c r="U63" s="20">
         <v>1.9753139388642704E-3</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="30" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="29"/>
-      <c r="K64" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L64" s="30" t="s">
+      <c r="H64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M64" s="31">
-        <v>0</v>
-      </c>
-      <c r="N64" s="31">
-        <v>0</v>
-      </c>
-      <c r="O64" s="31">
-        <v>0</v>
-      </c>
-      <c r="P64" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="31">
-        <v>0</v>
-      </c>
-      <c r="R64" s="31">
-        <v>0</v>
-      </c>
-      <c r="S64" s="31">
-        <v>0</v>
-      </c>
-      <c r="T64" s="31">
-        <v>0</v>
-      </c>
-      <c r="U64" s="31">
+      <c r="M64" s="20">
+        <v>0</v>
+      </c>
+      <c r="N64" s="20">
+        <v>0</v>
+      </c>
+      <c r="O64" s="20">
+        <v>0</v>
+      </c>
+      <c r="P64" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>0</v>
+      </c>
+      <c r="R64" s="20">
+        <v>0</v>
+      </c>
+      <c r="S64" s="20">
+        <v>0</v>
+      </c>
+      <c r="T64" s="20">
+        <v>0</v>
+      </c>
+      <c r="U64" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65" s="30" t="s">
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J65" s="29"/>
-      <c r="K65" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L65" s="30" t="s">
+      <c r="H65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="19"/>
+      <c r="K65" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M65" s="31">
+      <c r="M65" s="20">
         <v>2.1615060140688782E-6</v>
       </c>
-      <c r="N65" s="31">
+      <c r="N65" s="20">
         <v>2.4298363652345126E-6</v>
       </c>
-      <c r="O65" s="31">
+      <c r="O65" s="20">
         <v>2.7107196121285061E-6</v>
       </c>
-      <c r="P65" s="31">
+      <c r="P65" s="20">
         <v>3.0193202055010441E-6</v>
       </c>
-      <c r="Q65" s="31">
+      <c r="Q65" s="20">
         <v>3.3583732721505626E-6</v>
       </c>
-      <c r="R65" s="31">
+      <c r="R65" s="20">
         <v>3.7308838391204342E-6</v>
       </c>
-      <c r="S65" s="31">
+      <c r="S65" s="20">
         <v>4.1401534672511127E-6</v>
       </c>
-      <c r="T65" s="31">
-        <v>0</v>
-      </c>
-      <c r="U65" s="31">
+      <c r="T65" s="20">
+        <v>0</v>
+      </c>
+      <c r="U65" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="30" t="s">
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="29"/>
-      <c r="K66" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" s="30" t="s">
+      <c r="H66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M66" s="31">
+      <c r="M66" s="20">
         <v>9.4566388468174449E-7</v>
       </c>
-      <c r="N66" s="31">
+      <c r="N66" s="20">
         <v>1.0630590344568052E-6</v>
       </c>
-      <c r="O66" s="31">
+      <c r="O66" s="20">
         <v>1.185946105170887E-6</v>
       </c>
-      <c r="P66" s="31">
+      <c r="P66" s="20">
         <v>1.3209595791303753E-6</v>
       </c>
-      <c r="Q66" s="31">
+      <c r="Q66" s="20">
         <v>1.469296080640949E-6</v>
       </c>
-      <c r="R66" s="31">
+      <c r="R66" s="20">
         <v>1.6322703159902207E-6</v>
       </c>
-      <c r="S66" s="31">
+      <c r="S66" s="20">
         <v>1.8113267256884531E-6</v>
       </c>
-      <c r="T66" s="31">
-        <v>0</v>
-      </c>
-      <c r="U66" s="31">
+      <c r="T66" s="20">
+        <v>0</v>
+      </c>
+      <c r="U66" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="18" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="H67" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I67" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J67" s="27"/>
-      <c r="K67" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" s="18" t="s">
+      <c r="I67" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="18"/>
+      <c r="K67" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="M67" s="32">
+      <c r="M67" s="21">
         <v>0.89836078513170348</v>
       </c>
-      <c r="N67" s="32">
+      <c r="N67" s="21">
         <v>0.89431332233813465</v>
       </c>
-      <c r="O67" s="32">
+      <c r="O67" s="21">
         <v>0.88984459636608904</v>
       </c>
-      <c r="P67" s="32">
+      <c r="P67" s="21">
         <v>0.88491076180559247</v>
       </c>
-      <c r="Q67" s="32">
+      <c r="Q67" s="21">
         <v>0.87974611507453837</v>
       </c>
-      <c r="R67" s="32">
+      <c r="R67" s="21">
         <v>0.8740718249081183</v>
       </c>
-      <c r="S67" s="32">
+      <c r="S67" s="21">
         <v>0.86783760007737909</v>
       </c>
-      <c r="T67" s="32">
+      <c r="T67" s="21">
         <v>0.86098818665291066</v>
       </c>
-      <c r="U67" s="32">
+      <c r="U67" s="21">
         <v>0.85346287828931711</v>
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="30" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I68" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="29"/>
-      <c r="K68" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L68" s="30" t="s">
+      <c r="I68" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19"/>
+      <c r="K68" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M68" s="31">
+      <c r="M68" s="20">
         <v>1.8872691171169468E-2</v>
       </c>
-      <c r="N68" s="31">
+      <c r="N68" s="20">
         <v>1.8787662398104064E-2</v>
       </c>
-      <c r="O68" s="31">
+      <c r="O68" s="20">
         <v>1.86937837620429E-2</v>
       </c>
-      <c r="P68" s="31">
+      <c r="P68" s="20">
         <v>1.8590134162137173E-2</v>
       </c>
-      <c r="Q68" s="31">
+      <c r="Q68" s="20">
         <v>1.8481635678703166E-2</v>
       </c>
-      <c r="R68" s="31">
+      <c r="R68" s="20">
         <v>1.8362430646939952E-2</v>
       </c>
-      <c r="S68" s="31">
+      <c r="S68" s="20">
         <v>1.8231462552751682E-2</v>
       </c>
-      <c r="T68" s="31">
+      <c r="T68" s="20">
         <v>1.8087570626030166E-2</v>
       </c>
-      <c r="U68" s="31">
+      <c r="U68" s="20">
         <v>1.7929479552750403E-2</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="30" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="29"/>
-      <c r="K69" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L69" s="30" t="s">
+      <c r="I69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="19"/>
+      <c r="K69" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L69" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M69" s="31">
+      <c r="M69" s="20">
         <v>1.8066704847766934E-3</v>
       </c>
-      <c r="N69" s="31">
+      <c r="N69" s="20">
         <v>1.7985307354817588E-3</v>
       </c>
-      <c r="O69" s="31">
+      <c r="O69" s="20">
         <v>1.7895437945423609E-3</v>
       </c>
-      <c r="P69" s="31">
+      <c r="P69" s="20">
         <v>1.7796214855716798E-3</v>
       </c>
-      <c r="Q69" s="31">
+      <c r="Q69" s="20">
         <v>1.7692349961258766E-3</v>
       </c>
-      <c r="R69" s="31">
+      <c r="R69" s="20">
         <v>1.757823575752906E-3</v>
       </c>
-      <c r="S69" s="31">
+      <c r="S69" s="20">
         <v>1.745286085043639E-3</v>
       </c>
-      <c r="T69" s="31">
+      <c r="T69" s="20">
         <v>1.7315114042285073E-3</v>
       </c>
-      <c r="U69" s="31">
+      <c r="U69" s="20">
         <v>1.7163774483230805E-3</v>
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="30" t="s">
+      <c r="C70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="29"/>
-      <c r="K70" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L70" s="30" t="s">
+      <c r="I70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="19"/>
+      <c r="K70" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M70" s="31">
+      <c r="M70" s="20">
         <v>8.0959853212350358E-2</v>
       </c>
-      <c r="N70" s="31">
+      <c r="N70" s="20">
         <v>8.5100484528279494E-2</v>
       </c>
-      <c r="O70" s="31">
+      <c r="O70" s="20">
         <v>8.967207607732558E-2</v>
       </c>
-      <c r="P70" s="31">
+      <c r="P70" s="20">
         <v>9.4719482546698722E-2</v>
       </c>
-      <c r="Q70" s="31">
+      <c r="Q70" s="20">
         <v>0.10000301425063238</v>
       </c>
-      <c r="R70" s="31">
+      <c r="R70" s="20">
         <v>0.10580792086918876</v>
       </c>
-      <c r="S70" s="31">
+      <c r="S70" s="20">
         <v>0.11218565128482562</v>
       </c>
-      <c r="T70" s="31">
+      <c r="T70" s="20">
         <v>0.11919273131683054</v>
       </c>
-      <c r="U70" s="31">
+      <c r="U70" s="20">
         <v>0.12689126470960951</v>
       </c>
     </row>
